--- a/Code/Results/Cases/Case_4_165/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_165/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.55560856846889</v>
+        <v>18.01240722717635</v>
       </c>
       <c r="C2">
-        <v>6.216202648988725</v>
+        <v>7.053251811927651</v>
       </c>
       <c r="D2">
-        <v>9.570640500610308</v>
+        <v>13.93593755237917</v>
       </c>
       <c r="E2">
-        <v>8.844508653858668</v>
+        <v>14.4254752448334</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.135558089387686</v>
+        <v>3.725995161099738</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.990166641751229</v>
+        <v>8.644754712247629</v>
       </c>
       <c r="K2">
-        <v>11.36725749865877</v>
+        <v>13.63415955619782</v>
       </c>
       <c r="L2">
-        <v>7.644972574351597</v>
+        <v>12.33445245877133</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>14.72155104383422</v>
+        <v>22.67466171358504</v>
       </c>
       <c r="O2">
-        <v>22.05063543804653</v>
+        <v>33.76093678760819</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.73496467354639</v>
+        <v>17.87076515841797</v>
       </c>
       <c r="C3">
-        <v>6.113622980026274</v>
+        <v>7.019378704982575</v>
       </c>
       <c r="D3">
-        <v>9.342034119181692</v>
+        <v>13.93058913873882</v>
       </c>
       <c r="E3">
-        <v>8.785814155427463</v>
+        <v>14.44636800134981</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.141204050390756</v>
+        <v>3.728152806147501</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.016939600025407</v>
+        <v>8.65565721002149</v>
       </c>
       <c r="K3">
-        <v>10.76899685295009</v>
+        <v>13.53536402074438</v>
       </c>
       <c r="L3">
-        <v>7.51864918288144</v>
+        <v>12.34021383469987</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>14.9360175881395</v>
+        <v>22.73824987449331</v>
       </c>
       <c r="O3">
-        <v>22.00395542656385</v>
+        <v>33.83553556228343</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.21412498562983</v>
+        <v>17.78690706617667</v>
       </c>
       <c r="C4">
-        <v>6.049622069863522</v>
+        <v>6.998160192489275</v>
       </c>
       <c r="D4">
-        <v>9.204230458104352</v>
+        <v>13.92976497995518</v>
       </c>
       <c r="E4">
-        <v>8.753680344166128</v>
+        <v>14.4610931935967</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.144781059581752</v>
+        <v>3.729548719377811</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.034012285545355</v>
+        <v>8.662730066140876</v>
       </c>
       <c r="K4">
-        <v>10.38894043038887</v>
+        <v>13.47690989337503</v>
       </c>
       <c r="L4">
-        <v>7.443441377996255</v>
+        <v>12.34542360884598</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.07083116476594</v>
+        <v>22.77915322964724</v>
       </c>
       <c r="O4">
-        <v>21.98955856771012</v>
+        <v>33.88694672501256</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.99786023021471</v>
+        <v>17.75354904494469</v>
       </c>
       <c r="C5">
-        <v>6.023296503358837</v>
+        <v>6.98940975588437</v>
       </c>
       <c r="D5">
-        <v>9.148781692877153</v>
+        <v>13.93004932501577</v>
       </c>
       <c r="E5">
-        <v>8.741557377985727</v>
+        <v>14.46757121918707</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.14626711556134</v>
+        <v>3.730135503496933</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.041131010250284</v>
+        <v>8.665707817029952</v>
       </c>
       <c r="K5">
-        <v>10.23104165433422</v>
+        <v>13.45366582594336</v>
       </c>
       <c r="L5">
-        <v>7.413409128741749</v>
+        <v>12.34796796354521</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.12657655033853</v>
+        <v>22.79629067359728</v>
       </c>
       <c r="O5">
-        <v>21.98716619185859</v>
+        <v>33.90930594464203</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.96171505708413</v>
+        <v>17.74806010986088</v>
       </c>
       <c r="C6">
-        <v>6.018910719254055</v>
+        <v>6.987950545442466</v>
       </c>
       <c r="D6">
-        <v>9.139619037588748</v>
+        <v>13.93013404133145</v>
       </c>
       <c r="E6">
-        <v>8.739602744170273</v>
+        <v>14.4686757339263</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.146515607348251</v>
+        <v>3.730234023645115</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.04232287995135</v>
+        <v>8.666208046865581</v>
       </c>
       <c r="K6">
-        <v>10.2046459317005</v>
+        <v>13.44984159466277</v>
       </c>
       <c r="L6">
-        <v>7.408460133650788</v>
+        <v>12.34841592111669</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.13588240610764</v>
+        <v>22.79916469723199</v>
       </c>
       <c r="O6">
-        <v>21.9869754752684</v>
+        <v>33.91310372297145</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.21122427366464</v>
+        <v>17.78645384698943</v>
       </c>
       <c r="C7">
-        <v>6.049268009762457</v>
+        <v>6.998042598405134</v>
       </c>
       <c r="D7">
-        <v>9.203479709029235</v>
+        <v>13.9297663016007</v>
       </c>
       <c r="E7">
-        <v>8.753512928990217</v>
+        <v>14.46117862510205</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.144800985247861</v>
+        <v>3.729556560247185</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.034107634715515</v>
+        <v>8.662769838059472</v>
       </c>
       <c r="K7">
-        <v>10.38682293351845</v>
+        <v>13.4765940538997</v>
       </c>
       <c r="L7">
-        <v>7.443033830253729</v>
+        <v>12.34545621593864</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.0715796691311</v>
+        <v>22.77938245056623</v>
       </c>
       <c r="O7">
-        <v>21.98951238485755</v>
+        <v>33.88724256701979</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.27630477142964</v>
+        <v>17.96294340649895</v>
       </c>
       <c r="C8">
-        <v>6.181050490611528</v>
+        <v>7.04166076969181</v>
       </c>
       <c r="D8">
-        <v>9.491323134033003</v>
+        <v>13.93358397333215</v>
       </c>
       <c r="E8">
-        <v>8.823454648320707</v>
+        <v>14.43228559839286</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.137482306668997</v>
+        <v>3.72672439240315</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.999267629938505</v>
+        <v>8.64843546914001</v>
       </c>
       <c r="K8">
-        <v>11.16371340178795</v>
+        <v>13.59965006712828</v>
       </c>
       <c r="L8">
-        <v>7.600941669316433</v>
+        <v>12.33609242400196</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>14.79486208841329</v>
+        <v>22.69620165564572</v>
       </c>
       <c r="O8">
-        <v>22.0315121596745</v>
+        <v>33.78549396611058</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.22173500918399</v>
+        <v>18.33222460197624</v>
       </c>
       <c r="C9">
-        <v>6.430976826179329</v>
+        <v>7.123776711817865</v>
       </c>
       <c r="D9">
-        <v>10.0733910654376</v>
+        <v>13.96050346289983</v>
       </c>
       <c r="E9">
-        <v>8.991991335868688</v>
+        <v>14.39066004535291</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.12397542840392</v>
+        <v>3.721732157993463</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.935880312758439</v>
+        <v>8.623317613274658</v>
       </c>
       <c r="K9">
-        <v>12.61723830306691</v>
+        <v>13.85748268328446</v>
       </c>
       <c r="L9">
-        <v>7.928237006626887</v>
+        <v>12.33095971275656</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14.27608090337369</v>
+        <v>22.54778245270364</v>
       </c>
       <c r="O9">
-        <v>22.23203190601674</v>
+        <v>33.63050765185349</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.55494788675959</v>
+        <v>18.61558910559912</v>
       </c>
       <c r="C10">
-        <v>6.608917335239791</v>
+        <v>7.181912709182988</v>
       </c>
       <c r="D10">
-        <v>10.50831793055769</v>
+        <v>13.99199856400087</v>
       </c>
       <c r="E10">
-        <v>9.13542876623257</v>
+        <v>14.36921704494666</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.114521828114736</v>
+        <v>3.718403129163793</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.892177000932779</v>
+        <v>8.606669511018053</v>
       </c>
       <c r="K10">
-        <v>13.76412312461575</v>
+        <v>14.05560650516482</v>
       </c>
       <c r="L10">
-        <v>8.17805603174199</v>
+        <v>12.33519727503919</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>13.90805781273016</v>
+        <v>22.44761388150152</v>
       </c>
       <c r="O10">
-        <v>22.45810086206682</v>
+        <v>33.54385921149626</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.13940078030474</v>
+        <v>18.74665623717404</v>
       </c>
       <c r="C11">
-        <v>6.688551364721953</v>
+        <v>7.20786050414185</v>
       </c>
       <c r="D11">
-        <v>10.70710234518289</v>
+        <v>14.00883685015584</v>
       </c>
       <c r="E11">
-        <v>9.205026979630928</v>
+        <v>14.36144011528707</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.110312513723274</v>
+        <v>3.716961457060874</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.872885538462039</v>
+        <v>8.599484214562118</v>
       </c>
       <c r="K11">
-        <v>14.25933280180025</v>
+        <v>14.14732072404773</v>
       </c>
       <c r="L11">
-        <v>8.293452033524156</v>
+        <v>12.33884987478558</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>13.74315897642047</v>
+        <v>22.40395355169048</v>
       </c>
       <c r="O11">
-        <v>22.57945334479242</v>
+        <v>33.51036252621113</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.35748547656135</v>
+        <v>18.79655961335138</v>
       </c>
       <c r="C12">
-        <v>6.71851263738125</v>
+        <v>7.2176125429357</v>
       </c>
       <c r="D12">
-        <v>10.78246271315077</v>
+        <v>14.01557072014123</v>
       </c>
       <c r="E12">
-        <v>9.232013007361296</v>
+        <v>14.35877891631928</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.108730730055452</v>
+        <v>3.716425931911419</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.865662358786451</v>
+        <v>8.596818836400059</v>
       </c>
       <c r="K12">
-        <v>14.4430990266693</v>
+        <v>14.18225241708441</v>
       </c>
       <c r="L12">
-        <v>8.337379090474011</v>
+        <v>12.34047964648433</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>13.68105037789815</v>
+        <v>22.38769339118121</v>
       </c>
       <c r="O12">
-        <v>22.62818164513066</v>
+        <v>33.49853016463218</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.31066172432226</v>
+        <v>18.7858006097562</v>
       </c>
       <c r="C13">
-        <v>6.712068663840425</v>
+        <v>7.21551558429209</v>
       </c>
       <c r="D13">
-        <v>10.76622945104727</v>
+        <v>14.01410461657943</v>
       </c>
       <c r="E13">
-        <v>9.226172948731724</v>
+        <v>14.3593394435782</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.109070868504933</v>
+        <v>3.716540804906087</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.867214393386385</v>
+        <v>8.597390407301598</v>
       </c>
       <c r="K13">
-        <v>14.40368798127749</v>
+        <v>14.17472071641073</v>
       </c>
       <c r="L13">
-        <v>8.327908767698661</v>
+        <v>12.34011770184694</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>13.69441211628689</v>
+        <v>22.39118318140083</v>
       </c>
       <c r="O13">
-        <v>22.61756194337144</v>
+        <v>33.50104056685232</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.15740787142298</v>
+        <v>18.75075661442279</v>
       </c>
       <c r="C14">
-        <v>6.691020220711327</v>
+        <v>7.208664302055354</v>
       </c>
       <c r="D14">
-        <v>10.71330084574174</v>
+        <v>14.00938370451245</v>
       </c>
       <c r="E14">
-        <v>9.207234465914702</v>
+        <v>14.36121549373957</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.110182140558847</v>
+        <v>3.716917190855065</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.872289653962795</v>
+        <v>8.599263820706117</v>
       </c>
       <c r="K14">
-        <v>14.27452637834518</v>
+        <v>14.15019069034049</v>
       </c>
       <c r="L14">
-        <v>8.297061471832173</v>
+        <v>12.33897902321347</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>13.73804270851686</v>
+        <v>22.40261035250512</v>
       </c>
       <c r="O14">
-        <v>22.5834059997618</v>
+        <v>33.50937198925909</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.06311259858008</v>
+        <v>18.72932527049814</v>
       </c>
       <c r="C15">
-        <v>6.678101977698828</v>
+        <v>7.20445801609604</v>
       </c>
       <c r="D15">
-        <v>10.68089025489453</v>
+        <v>14.00653846721877</v>
       </c>
       <c r="E15">
-        <v>9.195716391100698</v>
+        <v>14.36240156249426</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.110864386266403</v>
+        <v>3.717149091583777</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.875409004912981</v>
+        <v>8.600418565548765</v>
       </c>
       <c r="K15">
-        <v>14.19492327698554</v>
+        <v>14.13519078872118</v>
       </c>
       <c r="L15">
-        <v>8.278195800472101</v>
+        <v>12.33831362140628</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>13.76481051742975</v>
+        <v>22.4096453513252</v>
       </c>
       <c r="O15">
-        <v>22.56284917755767</v>
+        <v>33.51458621621703</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.51630292293433</v>
+        <v>18.60706367850532</v>
       </c>
       <c r="C16">
-        <v>6.60368614073308</v>
+        <v>7.180206744621448</v>
       </c>
       <c r="D16">
-        <v>10.49534135368349</v>
+        <v>13.99094837802582</v>
       </c>
       <c r="E16">
-        <v>9.130968324923169</v>
+        <v>14.36976502828209</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.114798674258178</v>
+        <v>3.718498804659767</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.893449377841987</v>
+        <v>8.607146872702874</v>
       </c>
       <c r="K16">
-        <v>13.73123102169113</v>
+        <v>14.04964242031806</v>
       </c>
       <c r="L16">
-        <v>8.170547894120435</v>
+        <v>12.3349931591688</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>13.91888270919763</v>
+        <v>22.45050545939896</v>
       </c>
       <c r="O16">
-        <v>22.45055236890467</v>
+        <v>33.5461674989402</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.17515477423556</v>
+        <v>18.53258584834449</v>
       </c>
       <c r="C17">
-        <v>6.557693877758056</v>
+        <v>7.165200158611476</v>
       </c>
       <c r="D17">
-        <v>10.38171549092196</v>
+        <v>13.98202510029438</v>
       </c>
       <c r="E17">
-        <v>9.09236508115735</v>
+        <v>14.37478836446634</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.117234950184713</v>
+        <v>3.719345397904942</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.904665658629182</v>
+        <v>8.611373665617217</v>
       </c>
       <c r="K17">
-        <v>13.44001751571556</v>
+        <v>13.99754877124613</v>
       </c>
       <c r="L17">
-        <v>8.10494133523612</v>
+        <v>12.33339697416303</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>14.01402681995044</v>
+        <v>22.47605938519152</v>
       </c>
       <c r="O17">
-        <v>22.38648396119142</v>
+        <v>33.56705850182778</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.97686396201965</v>
+        <v>18.4899541951361</v>
       </c>
       <c r="C18">
-        <v>6.531117112452586</v>
+        <v>7.156521967374019</v>
       </c>
       <c r="D18">
-        <v>10.31645142518375</v>
+        <v>13.9771292446334</v>
       </c>
       <c r="E18">
-        <v>9.070570456707582</v>
+        <v>14.37786383656927</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.118644872045421</v>
+        <v>3.719839183776026</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.911172611108285</v>
+        <v>8.613841341582603</v>
       </c>
       <c r="K18">
-        <v>13.27002024227193</v>
+        <v>13.96773684397185</v>
       </c>
       <c r="L18">
-        <v>8.067372363490151</v>
+        <v>12.33264134032667</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>14.06898975727081</v>
+        <v>22.49093687727356</v>
       </c>
       <c r="O18">
-        <v>22.35136934748011</v>
+        <v>33.57963164706081</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.90937275648102</v>
+        <v>18.47555644837358</v>
       </c>
       <c r="C19">
-        <v>6.522097708741237</v>
+        <v>7.153575708250262</v>
       </c>
       <c r="D19">
-        <v>10.29437127563279</v>
+        <v>13.97551232602888</v>
       </c>
       <c r="E19">
-        <v>9.063261234248873</v>
+        <v>14.3789371334156</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.119123758362058</v>
+        <v>3.720007548907593</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.913385389726944</v>
+        <v>8.614683137322501</v>
       </c>
       <c r="K19">
-        <v>13.21203128530237</v>
+        <v>13.95766977377057</v>
       </c>
       <c r="L19">
-        <v>8.054681422490436</v>
+        <v>12.33241343821803</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>14.08764103764968</v>
+        <v>22.49600501342987</v>
       </c>
       <c r="O19">
-        <v>22.33977482294871</v>
+        <v>33.58398436930957</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.21168551943268</v>
+        <v>18.54049310645836</v>
       </c>
       <c r="C20">
-        <v>6.562602632742459</v>
+        <v>7.166802494430772</v>
       </c>
       <c r="D20">
-        <v>10.39380216409264</v>
+        <v>13.98295053792023</v>
       </c>
       <c r="E20">
-        <v>9.096432097816983</v>
+        <v>14.37423435692004</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.116974716667139</v>
+        <v>3.719254568263438</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.903465926356587</v>
+        <v>8.610919936780347</v>
       </c>
       <c r="K20">
-        <v>13.47127594193265</v>
+        <v>14.00307879750287</v>
       </c>
       <c r="L20">
-        <v>8.111908237055649</v>
+        <v>12.33355008784929</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>14.00387406797341</v>
+        <v>22.4733205517484</v>
       </c>
       <c r="O20">
-        <v>22.39312368010068</v>
+        <v>33.56477694516947</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.20251045385988</v>
+        <v>18.76104284735513</v>
       </c>
       <c r="C21">
-        <v>6.697207973562337</v>
+        <v>7.210678710356877</v>
       </c>
       <c r="D21">
-        <v>10.72884531670647</v>
+        <v>14.01076067578183</v>
       </c>
       <c r="E21">
-        <v>9.212779998234337</v>
+        <v>14.36065675654385</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.109855409750978</v>
+        <v>3.71680635520938</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.870796721325346</v>
+        <v>8.598712048541952</v>
       </c>
       <c r="K21">
-        <v>14.31256584869839</v>
+        <v>14.15739049818554</v>
       </c>
       <c r="L21">
-        <v>8.306116025731674</v>
+        <v>12.33930679972024</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>13.72521847370073</v>
+        <v>22.39924651367285</v>
       </c>
       <c r="O21">
-        <v>22.59336222990364</v>
+        <v>33.50690171710509</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.83120118377206</v>
+        <v>18.90674637758352</v>
       </c>
       <c r="C22">
-        <v>6.784045558099773</v>
+        <v>7.238923046045163</v>
       </c>
       <c r="D22">
-        <v>10.94829231936288</v>
+        <v>14.03101859156619</v>
       </c>
       <c r="E22">
-        <v>9.292498652656848</v>
+        <v>14.35343662198566</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.105273125572289</v>
+        <v>3.715266929576754</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.849922581054704</v>
+        <v>8.591057085961399</v>
       </c>
       <c r="K22">
-        <v>14.8405141213751</v>
+        <v>14.25940417956563</v>
       </c>
       <c r="L22">
-        <v>8.43436818849184</v>
+        <v>12.34450584037628</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>13.54504035676982</v>
+        <v>22.35242592154905</v>
       </c>
       <c r="O22">
-        <v>22.74045466338914</v>
+        <v>33.47404388516961</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.49739989119877</v>
+        <v>18.82885202927726</v>
       </c>
       <c r="C23">
-        <v>6.737804064082151</v>
+        <v>7.223888679498389</v>
       </c>
       <c r="D23">
-        <v>10.83114044479785</v>
+        <v>14.0200172609142</v>
       </c>
       <c r="E23">
-        <v>9.249612964857905</v>
+        <v>14.35713905925036</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.107712637425165</v>
+        <v>3.716083020137567</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.861020770708387</v>
+        <v>8.595113158814369</v>
       </c>
       <c r="K23">
-        <v>14.56072215361124</v>
+        <v>14.20486008253956</v>
       </c>
       <c r="L23">
-        <v>8.365803303054591</v>
+        <v>12.34160005826627</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>13.64103652891781</v>
+        <v>22.3772697442579</v>
       </c>
       <c r="O23">
-        <v>22.66042711119217</v>
+        <v>33.49112603048074</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.19517669274494</v>
+        <v>18.53691765063657</v>
       </c>
       <c r="C24">
-        <v>6.560383805279734</v>
+        <v>7.166078236195071</v>
       </c>
       <c r="D24">
-        <v>10.38833758547539</v>
+        <v>13.98253141763736</v>
       </c>
       <c r="E24">
-        <v>9.094592157533326</v>
+        <v>14.3744842396811</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.117092339284195</v>
+        <v>3.719295610324313</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.904008142704815</v>
+        <v>8.611124950334306</v>
       </c>
       <c r="K24">
-        <v>13.45715203124952</v>
+        <v>14.00057824258992</v>
       </c>
       <c r="L24">
-        <v>8.10875803453121</v>
+        <v>12.33348036032757</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>14.00846330493601</v>
+        <v>22.47455819823343</v>
       </c>
       <c r="O24">
-        <v>22.39011651690122</v>
+        <v>33.56580668440417</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.71181651062646</v>
+        <v>18.23005323573271</v>
       </c>
       <c r="C25">
-        <v>6.364330513179333</v>
+        <v>7.101939595907461</v>
       </c>
       <c r="D25">
-        <v>9.914409649504579</v>
+        <v>13.95115270530832</v>
       </c>
       <c r="E25">
-        <v>8.942984358654071</v>
+        <v>14.40031383189543</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.127543447123556</v>
+        <v>3.723022938604518</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.952514211251743</v>
+        <v>8.629794224247805</v>
       </c>
       <c r="K25">
-        <v>12.20913886997429</v>
+        <v>13.78610310193655</v>
       </c>
       <c r="L25">
-        <v>7.837951911287062</v>
+        <v>12.33093732930181</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>14.4140137443618</v>
+        <v>22.58636911573084</v>
       </c>
       <c r="O25">
-        <v>22.16443717609732</v>
+        <v>33.66765961337871</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_165/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_165/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.01240722717635</v>
+        <v>15.55560856846882</v>
       </c>
       <c r="C2">
-        <v>7.053251811927651</v>
+        <v>6.216202648988591</v>
       </c>
       <c r="D2">
-        <v>13.93593755237917</v>
+        <v>9.570640500610256</v>
       </c>
       <c r="E2">
-        <v>14.4254752448334</v>
+        <v>8.84450865385862</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.725995161099738</v>
+        <v>2.135558089387684</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.644754712247629</v>
+        <v>4.99016664175126</v>
       </c>
       <c r="K2">
-        <v>13.63415955619782</v>
+        <v>11.36725749865873</v>
       </c>
       <c r="L2">
-        <v>12.33445245877133</v>
+        <v>7.644972574351624</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>22.67466171358504</v>
+        <v>14.72155104383415</v>
       </c>
       <c r="O2">
-        <v>33.76093678760819</v>
+        <v>22.05063543804633</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.87076515841797</v>
+        <v>14.73496467354637</v>
       </c>
       <c r="C3">
-        <v>7.019378704982575</v>
+        <v>6.11362298002626</v>
       </c>
       <c r="D3">
-        <v>13.93058913873882</v>
+        <v>9.342034119181649</v>
       </c>
       <c r="E3">
-        <v>14.44636800134981</v>
+        <v>8.785814155427573</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.728152806147501</v>
+        <v>2.141204050390221</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.65565721002149</v>
+        <v>5.01693960002554</v>
       </c>
       <c r="K3">
-        <v>13.53536402074438</v>
+        <v>10.76899685295007</v>
       </c>
       <c r="L3">
-        <v>12.34021383469987</v>
+        <v>7.518649182881529</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>22.73824987449331</v>
+        <v>14.93601758813946</v>
       </c>
       <c r="O3">
-        <v>33.83553556228343</v>
+        <v>22.00395542656377</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.78690706617667</v>
+        <v>14.21412498562979</v>
       </c>
       <c r="C4">
-        <v>6.998160192489275</v>
+        <v>6.049622069863377</v>
       </c>
       <c r="D4">
-        <v>13.92976497995518</v>
+        <v>9.204230458104371</v>
       </c>
       <c r="E4">
-        <v>14.4610931935967</v>
+        <v>8.753680344166078</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.729548719377811</v>
+        <v>2.144781059581753</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.662730066140876</v>
+        <v>5.034012285545289</v>
       </c>
       <c r="K4">
-        <v>13.47690989337503</v>
+        <v>10.38894043038885</v>
       </c>
       <c r="L4">
-        <v>12.34542360884598</v>
+        <v>7.443441377996257</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>22.77915322964724</v>
+        <v>15.07083116476591</v>
       </c>
       <c r="O4">
-        <v>33.88694672501256</v>
+        <v>21.98955856771</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.75354904494469</v>
+        <v>13.99786023021478</v>
       </c>
       <c r="C5">
-        <v>6.98940975588437</v>
+        <v>6.02329650335908</v>
       </c>
       <c r="D5">
-        <v>13.93004932501577</v>
+        <v>9.148781692877202</v>
       </c>
       <c r="E5">
-        <v>14.46757121918707</v>
+        <v>8.741557377985623</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.730135503496933</v>
+        <v>2.146267115561209</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.665707817029952</v>
+        <v>5.04113101025022</v>
       </c>
       <c r="K5">
-        <v>13.45366582594336</v>
+        <v>10.23104165433425</v>
       </c>
       <c r="L5">
-        <v>12.34796796354521</v>
+        <v>7.413409128741676</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.79629067359728</v>
+        <v>15.12657655033857</v>
       </c>
       <c r="O5">
-        <v>33.90930594464203</v>
+        <v>21.98716619185871</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.74806010986088</v>
+        <v>13.9617150570841</v>
       </c>
       <c r="C6">
-        <v>6.987950545442466</v>
+        <v>6.018910719253799</v>
       </c>
       <c r="D6">
-        <v>13.93013404133145</v>
+        <v>9.139619037588673</v>
       </c>
       <c r="E6">
-        <v>14.4686757339263</v>
+        <v>8.739602744170231</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.730234023645115</v>
+        <v>2.146515607348117</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.666208046865581</v>
+        <v>5.042322879951351</v>
       </c>
       <c r="K6">
-        <v>13.44984159466277</v>
+        <v>10.20464593170051</v>
       </c>
       <c r="L6">
-        <v>12.34841592111669</v>
+        <v>7.408460133650821</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22.79916469723199</v>
+        <v>15.13588240610764</v>
       </c>
       <c r="O6">
-        <v>33.91310372297145</v>
+        <v>21.98697547526843</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.78645384698943</v>
+        <v>14.21122427366464</v>
       </c>
       <c r="C7">
-        <v>6.998042598405134</v>
+        <v>6.049268009762327</v>
       </c>
       <c r="D7">
-        <v>13.9297663016007</v>
+        <v>9.203479709029038</v>
       </c>
       <c r="E7">
-        <v>14.46117862510205</v>
+        <v>8.753512928990057</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.729556560247185</v>
+        <v>2.144800985247728</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.662769838059472</v>
+        <v>5.034107634715515</v>
       </c>
       <c r="K7">
-        <v>13.4765940538997</v>
+        <v>10.38682293351847</v>
       </c>
       <c r="L7">
-        <v>12.34545621593864</v>
+        <v>7.443033830253628</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>22.77938245056623</v>
+        <v>15.071579669131</v>
       </c>
       <c r="O7">
-        <v>33.88724256701979</v>
+        <v>21.98951238485753</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.96294340649895</v>
+        <v>15.27630477142964</v>
       </c>
       <c r="C8">
-        <v>7.04166076969181</v>
+        <v>6.181050490611401</v>
       </c>
       <c r="D8">
-        <v>13.93358397333215</v>
+        <v>9.491323134033014</v>
       </c>
       <c r="E8">
-        <v>14.43228559839286</v>
+        <v>8.823454648320761</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.72672439240315</v>
+        <v>2.137482306668863</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.64843546914001</v>
+        <v>4.999267629938637</v>
       </c>
       <c r="K8">
-        <v>13.59965006712828</v>
+        <v>11.16371340178797</v>
       </c>
       <c r="L8">
-        <v>12.33609242400196</v>
+        <v>7.600941669316527</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>22.69620165564572</v>
+        <v>14.79486208841323</v>
       </c>
       <c r="O8">
-        <v>33.78549396611058</v>
+        <v>22.03151215967447</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.33222460197624</v>
+        <v>17.22173500918396</v>
       </c>
       <c r="C9">
-        <v>7.123776711817865</v>
+        <v>6.430976826179336</v>
       </c>
       <c r="D9">
-        <v>13.96050346289983</v>
+        <v>10.07339106543753</v>
       </c>
       <c r="E9">
-        <v>14.39066004535291</v>
+        <v>8.99199133586864</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.721732157993463</v>
+        <v>2.12397542840392</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.623317613274658</v>
+        <v>4.935880312758403</v>
       </c>
       <c r="K9">
-        <v>13.85748268328446</v>
+        <v>12.61723830306694</v>
       </c>
       <c r="L9">
-        <v>12.33095971275656</v>
+        <v>7.928237006626852</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>22.54778245270364</v>
+        <v>14.27608090337353</v>
       </c>
       <c r="O9">
-        <v>33.63050765185349</v>
+        <v>22.23203190601651</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.61558910559912</v>
+        <v>18.55494788675959</v>
       </c>
       <c r="C10">
-        <v>7.181912709182988</v>
+        <v>6.608917335239782</v>
       </c>
       <c r="D10">
-        <v>13.99199856400087</v>
+        <v>10.5083179305577</v>
       </c>
       <c r="E10">
-        <v>14.36921704494666</v>
+        <v>9.135428766232572</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.718403129163793</v>
+        <v>2.11452182811487</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.606669511018053</v>
+        <v>4.892177000932779</v>
       </c>
       <c r="K10">
-        <v>14.05560650516482</v>
+        <v>13.76412312461574</v>
       </c>
       <c r="L10">
-        <v>12.33519727503919</v>
+        <v>8.178056031741987</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>22.44761388150152</v>
+        <v>13.90805781273016</v>
       </c>
       <c r="O10">
-        <v>33.54385921149626</v>
+        <v>22.45810086206682</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.74665623717404</v>
+        <v>19.13940078030473</v>
       </c>
       <c r="C11">
-        <v>7.20786050414185</v>
+        <v>6.688551364721819</v>
       </c>
       <c r="D11">
-        <v>14.00883685015584</v>
+        <v>10.70710234518292</v>
       </c>
       <c r="E11">
-        <v>14.36144011528707</v>
+        <v>9.205026979630931</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.716961457060874</v>
+        <v>2.110312513723406</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.599484214562118</v>
+        <v>4.872885538462007</v>
       </c>
       <c r="K11">
-        <v>14.14732072404773</v>
+        <v>14.25933280180024</v>
       </c>
       <c r="L11">
-        <v>12.33884987478558</v>
+        <v>8.293452033524192</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>22.40395355169048</v>
+        <v>13.74315897642044</v>
       </c>
       <c r="O11">
-        <v>33.51036252621113</v>
+        <v>22.57945334479241</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.79655961335138</v>
+        <v>19.35748547656135</v>
       </c>
       <c r="C12">
-        <v>7.2176125429357</v>
+        <v>6.718512637381247</v>
       </c>
       <c r="D12">
-        <v>14.01557072014123</v>
+        <v>10.78246271315078</v>
       </c>
       <c r="E12">
-        <v>14.35877891631928</v>
+        <v>9.232013007361251</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.716425931911419</v>
+        <v>2.108730730055717</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.596818836400059</v>
+        <v>4.865662358786449</v>
       </c>
       <c r="K12">
-        <v>14.18225241708441</v>
+        <v>14.44309902666933</v>
       </c>
       <c r="L12">
-        <v>12.34047964648433</v>
+        <v>8.337379090473998</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>22.38769339118121</v>
+        <v>13.68105037789809</v>
       </c>
       <c r="O12">
-        <v>33.49853016463218</v>
+        <v>22.62818164513058</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.7858006097562</v>
+        <v>19.31066172432224</v>
       </c>
       <c r="C13">
-        <v>7.21551558429209</v>
+        <v>6.712068663840406</v>
       </c>
       <c r="D13">
-        <v>14.01410461657943</v>
+        <v>10.76622945104726</v>
       </c>
       <c r="E13">
-        <v>14.3593394435782</v>
+        <v>9.226172948731721</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.716540804906087</v>
+        <v>2.1090708685048</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.597390407301598</v>
+        <v>4.867214393386416</v>
       </c>
       <c r="K13">
-        <v>14.17472071641073</v>
+        <v>14.40368798127745</v>
       </c>
       <c r="L13">
-        <v>12.34011770184694</v>
+        <v>8.327908767698634</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>22.39118318140083</v>
+        <v>13.69441211628688</v>
       </c>
       <c r="O13">
-        <v>33.50104056685232</v>
+        <v>22.61756194337142</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.75075661442279</v>
+        <v>19.15740787142299</v>
       </c>
       <c r="C14">
-        <v>7.208664302055354</v>
+        <v>6.691020220711323</v>
       </c>
       <c r="D14">
-        <v>14.00938370451245</v>
+        <v>10.71330084574174</v>
       </c>
       <c r="E14">
-        <v>14.36121549373957</v>
+        <v>9.207234465914654</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.716917190855065</v>
+        <v>2.110182140558579</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.599263820706117</v>
+        <v>4.872289653962763</v>
       </c>
       <c r="K14">
-        <v>14.15019069034049</v>
+        <v>14.27452637834518</v>
       </c>
       <c r="L14">
-        <v>12.33897902321347</v>
+        <v>8.297061471832135</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>22.40261035250512</v>
+        <v>13.73804270851686</v>
       </c>
       <c r="O14">
-        <v>33.50937198925909</v>
+        <v>22.5834059997618</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.72932527049814</v>
+        <v>19.06311259858007</v>
       </c>
       <c r="C15">
-        <v>7.20445801609604</v>
+        <v>6.678101977698603</v>
       </c>
       <c r="D15">
-        <v>14.00653846721877</v>
+        <v>10.68089025489454</v>
       </c>
       <c r="E15">
-        <v>14.36240156249426</v>
+        <v>9.195716391100657</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.717149091583777</v>
+        <v>2.110864386266269</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.600418565548765</v>
+        <v>4.875409004912916</v>
       </c>
       <c r="K15">
-        <v>14.13519078872118</v>
+        <v>14.19492327698551</v>
       </c>
       <c r="L15">
-        <v>12.33831362140628</v>
+        <v>8.278195800472103</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>22.4096453513252</v>
+        <v>13.76481051742972</v>
       </c>
       <c r="O15">
-        <v>33.51458621621703</v>
+        <v>22.56284917755766</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.60706367850532</v>
+        <v>18.5163029229343</v>
       </c>
       <c r="C16">
-        <v>7.180206744621448</v>
+        <v>6.603686140733204</v>
       </c>
       <c r="D16">
-        <v>13.99094837802582</v>
+        <v>10.4953413536835</v>
       </c>
       <c r="E16">
-        <v>14.36976502828209</v>
+        <v>9.130968324923169</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.718498804659767</v>
+        <v>2.114798674258177</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.607146872702874</v>
+        <v>4.893449377841922</v>
       </c>
       <c r="K16">
-        <v>14.04964242031806</v>
+        <v>13.73123102169118</v>
       </c>
       <c r="L16">
-        <v>12.3349931591688</v>
+        <v>8.170547894120443</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>22.45050545939896</v>
+        <v>13.9188827091975</v>
       </c>
       <c r="O16">
-        <v>33.5461674989402</v>
+        <v>22.45055236890446</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.53258584834449</v>
+        <v>18.17515477423553</v>
       </c>
       <c r="C17">
-        <v>7.165200158611476</v>
+        <v>6.557693877758053</v>
       </c>
       <c r="D17">
-        <v>13.98202510029438</v>
+        <v>10.38171549092202</v>
       </c>
       <c r="E17">
-        <v>14.37478836446634</v>
+        <v>9.092365081157389</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.719345397904942</v>
+        <v>2.117234950184442</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.611373665617217</v>
+        <v>4.904665658629185</v>
       </c>
       <c r="K17">
-        <v>13.99754877124613</v>
+        <v>13.44001751571559</v>
       </c>
       <c r="L17">
-        <v>12.33339697416303</v>
+        <v>8.104941335236159</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>22.47605938519152</v>
+        <v>14.01402681995035</v>
       </c>
       <c r="O17">
-        <v>33.56705850182778</v>
+        <v>22.38648396119131</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.4899541951361</v>
+        <v>17.97686396201967</v>
       </c>
       <c r="C18">
-        <v>7.156521967374019</v>
+        <v>6.531117112452581</v>
       </c>
       <c r="D18">
-        <v>13.9771292446334</v>
+        <v>10.31645142518366</v>
       </c>
       <c r="E18">
-        <v>14.37786383656927</v>
+        <v>9.070570456707543</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.719839183776026</v>
+        <v>2.118644872045555</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.613841341582603</v>
+        <v>4.911172611108315</v>
       </c>
       <c r="K18">
-        <v>13.96773684397185</v>
+        <v>13.2700202422719</v>
       </c>
       <c r="L18">
-        <v>12.33264134032667</v>
+        <v>8.067372363490128</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>22.49093687727356</v>
+        <v>14.06898975727088</v>
       </c>
       <c r="O18">
-        <v>33.57963164706081</v>
+        <v>22.35136934748023</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.47555644837358</v>
+        <v>17.90937275648102</v>
       </c>
       <c r="C19">
-        <v>7.153575708250262</v>
+        <v>6.52209770874136</v>
       </c>
       <c r="D19">
-        <v>13.97551232602888</v>
+        <v>10.29437127563274</v>
       </c>
       <c r="E19">
-        <v>14.3789371334156</v>
+        <v>9.063261234248964</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.720007548907593</v>
+        <v>2.119123758361788</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.614683137322501</v>
+        <v>4.91338538972704</v>
       </c>
       <c r="K19">
-        <v>13.95766977377057</v>
+        <v>13.21203128530242</v>
       </c>
       <c r="L19">
-        <v>12.33241343821803</v>
+        <v>8.054681422490448</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>22.49600501342987</v>
+        <v>14.08764103764962</v>
       </c>
       <c r="O19">
-        <v>33.58398436930957</v>
+        <v>22.33977482294855</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.54049310645836</v>
+        <v>18.21168551943269</v>
       </c>
       <c r="C20">
-        <v>7.166802494430772</v>
+        <v>6.562602632742454</v>
       </c>
       <c r="D20">
-        <v>13.98295053792023</v>
+        <v>10.3938021640927</v>
       </c>
       <c r="E20">
-        <v>14.37423435692004</v>
+        <v>9.096432097816983</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.719254568263438</v>
+        <v>2.116974716667273</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.610919936780347</v>
+        <v>4.903465926356556</v>
       </c>
       <c r="K20">
-        <v>14.00307879750287</v>
+        <v>13.47127594193261</v>
       </c>
       <c r="L20">
-        <v>12.33355008784929</v>
+        <v>8.111908237055667</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>22.4733205517484</v>
+        <v>14.00387406797344</v>
       </c>
       <c r="O20">
-        <v>33.56477694516947</v>
+        <v>22.39312368010079</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.76104284735513</v>
+        <v>19.20251045385988</v>
       </c>
       <c r="C21">
-        <v>7.210678710356877</v>
+        <v>6.697207973562458</v>
       </c>
       <c r="D21">
-        <v>14.01076067578183</v>
+        <v>10.72884531670643</v>
       </c>
       <c r="E21">
-        <v>14.36065675654385</v>
+        <v>9.212779998234339</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.71680635520938</v>
+        <v>2.109855409750978</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.598712048541952</v>
+        <v>4.870796721325414</v>
       </c>
       <c r="K21">
-        <v>14.15739049818554</v>
+        <v>14.31256584869841</v>
       </c>
       <c r="L21">
-        <v>12.33930679972024</v>
+        <v>8.30611602573167</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>22.39924651367285</v>
+        <v>13.72521847370066</v>
       </c>
       <c r="O21">
-        <v>33.50690171710509</v>
+        <v>22.59336222990355</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.90674637758352</v>
+        <v>19.83120118377208</v>
       </c>
       <c r="C22">
-        <v>7.238923046045163</v>
+        <v>6.784045558099655</v>
       </c>
       <c r="D22">
-        <v>14.03101859156619</v>
+        <v>10.94829231936277</v>
       </c>
       <c r="E22">
-        <v>14.35343662198566</v>
+        <v>9.292498652656809</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.715266929576754</v>
+        <v>2.105273125572289</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.591057085961399</v>
+        <v>4.849922581054832</v>
       </c>
       <c r="K22">
-        <v>14.25940417956563</v>
+        <v>14.8405141213751</v>
       </c>
       <c r="L22">
-        <v>12.34450584037628</v>
+        <v>8.43436818849184</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>22.35242592154905</v>
+        <v>13.54504035676979</v>
       </c>
       <c r="O22">
-        <v>33.47404388516961</v>
+        <v>22.74045466338915</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.82885202927726</v>
+        <v>19.49739989119878</v>
       </c>
       <c r="C23">
-        <v>7.223888679498389</v>
+        <v>6.737804064082023</v>
       </c>
       <c r="D23">
-        <v>14.0200172609142</v>
+        <v>10.83114044479793</v>
       </c>
       <c r="E23">
-        <v>14.35713905925036</v>
+        <v>9.24961296485791</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.716083020137567</v>
+        <v>2.107712637424898</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.595113158814369</v>
+        <v>4.861020770708324</v>
       </c>
       <c r="K23">
-        <v>14.20486008253956</v>
+        <v>14.56072215361122</v>
       </c>
       <c r="L23">
-        <v>12.34160005826627</v>
+        <v>8.365803303054614</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>22.3772697442579</v>
+        <v>13.64103652891785</v>
       </c>
       <c r="O23">
-        <v>33.49112603048074</v>
+        <v>22.66042711119226</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.53691765063657</v>
+        <v>18.19517669274493</v>
       </c>
       <c r="C24">
-        <v>7.166078236195071</v>
+        <v>6.560383805279738</v>
       </c>
       <c r="D24">
-        <v>13.98253141763736</v>
+        <v>10.3883375854754</v>
       </c>
       <c r="E24">
-        <v>14.3744842396811</v>
+        <v>9.094592157533269</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.719295610324313</v>
+        <v>2.117092339284062</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.611124950334306</v>
+        <v>4.904008142704749</v>
       </c>
       <c r="K24">
-        <v>14.00057824258992</v>
+        <v>13.45715203124954</v>
       </c>
       <c r="L24">
-        <v>12.33348036032757</v>
+        <v>8.10875803453116</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>22.47455819823343</v>
+        <v>14.00846330493599</v>
       </c>
       <c r="O24">
-        <v>33.56580668440417</v>
+        <v>22.39011651690116</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.23005323573271</v>
+        <v>16.71181651062649</v>
       </c>
       <c r="C25">
-        <v>7.101939595907461</v>
+        <v>6.364330513179457</v>
       </c>
       <c r="D25">
-        <v>13.95115270530832</v>
+        <v>9.914409649504599</v>
       </c>
       <c r="E25">
-        <v>14.40031383189543</v>
+        <v>8.942984358654089</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.723022938604518</v>
+        <v>2.127543447123423</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.629794224247805</v>
+        <v>4.952514211251683</v>
       </c>
       <c r="K25">
-        <v>13.78610310193655</v>
+        <v>12.2091388699743</v>
       </c>
       <c r="L25">
-        <v>12.33093732930181</v>
+        <v>7.837951911287029</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>22.58636911573084</v>
+        <v>14.41401374436184</v>
       </c>
       <c r="O25">
-        <v>33.66765961337871</v>
+        <v>22.16443717609738</v>
       </c>
     </row>
   </sheetData>
